--- a/HotelProject/src/test/java/com/hotel/testdata/TC02.xlsx
+++ b/HotelProject/src/test/java/com/hotel/testdata/TC02.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>PASSSWORD</t>
   </si>
@@ -72,9 +72,6 @@
     <t>12345demo</t>
   </si>
   <si>
-    <t>firstfirst</t>
-  </si>
-  <si>
     <t>CHECK-IN-DATE</t>
   </si>
   <si>
@@ -124,6 +121,15 @@
   </si>
   <si>
     <t>10-Ten</t>
+  </si>
+  <si>
+    <t>vijayajith</t>
+  </si>
+  <si>
+    <t>heroheroine@gmail.com</t>
+  </si>
+  <si>
+    <t>12345hero</t>
   </si>
 </sst>
 </file>
@@ -538,7 +544,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -571,10 +577,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -605,96 +611,24 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2">
-        <v>12345</v>
-      </c>
-      <c r="C2" s="2">
-        <v>12345</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2">
-        <v>12345</v>
-      </c>
-      <c r="C3" s="2">
-        <v>12345</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>12345</v>
-      </c>
-      <c r="C4" s="2">
-        <v>12345</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
-        <v>12345</v>
-      </c>
-      <c r="C5" s="2">
-        <v>12345</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <v>12345</v>
-      </c>
-      <c r="C6" s="2">
-        <v>12345</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -740,7 +674,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -761,28 +695,28 @@
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -793,28 +727,28 @@
         <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="8">
+        <v>45303</v>
+      </c>
+      <c r="H2" s="8">
+        <v>45304</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="G2" s="8">
-        <v>45284</v>
-      </c>
-      <c r="H2" s="8">
-        <v>45285</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -827,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -853,28 +787,28 @@
         <v>8</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -885,16 +819,16 @@
         <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="G2" s="8">
         <v>45284</v>
@@ -903,10 +837,10 @@
         <v>45285</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -917,10 +851,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -929,7 +863,7 @@
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -937,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -945,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -953,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -961,12 +895,80 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>12345</v>
+      </c>
+      <c r="C9" s="2">
+        <v>12345</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12345</v>
+      </c>
+      <c r="C10" s="2">
+        <v>12345</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>12345</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12345</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>12345</v>
+      </c>
+      <c r="C12" s="2">
+        <v>12345</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -975,6 +977,10 @@
     <hyperlink ref="A4" r:id="rId2"/>
     <hyperlink ref="A3" r:id="rId3"/>
     <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="E9" r:id="rId5"/>
+    <hyperlink ref="E10" r:id="rId6"/>
+    <hyperlink ref="E11" r:id="rId7"/>
+    <hyperlink ref="E12" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
